--- a/Sensors.xlsx
+++ b/Sensors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>Beddit Sensor</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Wahoo Tickr</t>
+  </si>
+  <si>
+    <t>Sensor</t>
   </si>
 </sst>
 </file>
@@ -552,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -574,7 +577,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
